--- a/DaySale_2025-05-27_20-52.xlsx
+++ b/DaySale_2025-05-27_20-52.xlsx
@@ -131,6 +131,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -341,6 +350,12 @@
     <t>13.8600</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
   </si>
   <si>
@@ -459,9 +474,6 @@
   </si>
   <si>
     <t>18.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
   </si>
   <si>
     <t>سرنجات دواء 5 سم</t>
@@ -1385,11 +1397,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1401,31 +1413,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1434,28 +1446,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>39</v>
@@ -1491,7 +1503,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1500,14 +1512,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1517,14 +1529,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1533,7 +1545,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1550,14 +1562,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>60</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>39</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1573,7 +1585,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1583,11 +1595,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>39</v>
@@ -1606,7 +1618,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1616,14 +1628,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1639,7 +1651,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1672,7 +1684,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1689,7 +1701,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1705,7 +1717,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1719,10 +1731,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1738,7 +1750,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1748,14 +1760,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1764,14 +1776,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1781,14 +1793,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1797,14 +1809,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1821,7 +1833,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1854,7 +1866,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1870,7 +1882,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1880,14 +1892,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1896,14 +1908,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1913,14 +1925,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1929,31 +1941,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1962,31 +1974,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1995,14 +2007,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2019,7 +2031,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2035,7 +2047,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2052,7 +2064,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2068,7 +2080,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2082,10 +2094,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2094,14 +2106,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2111,14 +2123,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2134,7 +2146,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2148,10 +2160,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2160,14 +2172,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2177,11 +2189,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>39</v>
@@ -2200,7 +2212,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2210,14 +2222,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2226,14 +2238,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2243,14 +2255,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2259,7 +2271,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2276,11 +2288,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2292,7 +2304,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2309,14 +2321,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>128</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2325,14 +2337,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2342,14 +2354,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2358,31 +2370,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2391,31 +2403,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2424,14 +2436,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2441,14 +2453,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2457,14 +2469,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2474,14 +2486,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>146</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2490,7 +2502,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2507,14 +2519,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2523,14 +2535,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2540,14 +2552,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2556,14 +2568,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2573,14 +2585,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2589,14 +2601,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2606,11 +2618,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2622,14 +2634,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2639,11 +2651,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2655,14 +2667,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2672,11 +2684,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2688,14 +2700,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2705,11 +2717,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2721,14 +2733,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2738,49 +2750,115 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2118.6700000000001</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>164</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
         <v>165</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>33</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>140</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>166</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>28</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>33</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>81</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2160.6700000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>168</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>169</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>170</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3034,10 +3112,20 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
